--- a/DataBase/design1.0.6.xlsx
+++ b/DataBase/design1.0.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\rs\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A12D1FA-1CEE-4700-B29E-323DF82F2B28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD2FB74-FE36-4C8B-94C7-344F4DB0F16E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" tabRatio="777" activeTab="9" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" tabRatio="777" activeTab="8" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="206">
   <si>
     <t>数据库设计1.0</t>
   </si>
@@ -828,14 +828,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(3)</t>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,8 +1876,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3764,10 +3765,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B731B8EA-5262-46B0-B463-BEDC70CAF103}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3836,7 +3837,7 @@
         <v>201</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>202</v>
@@ -3938,33 +3939,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="B14" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>204</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
